--- a/app/bom_auto/model_excel/bom_auto.xlsx
+++ b/app/bom_auto/model_excel/bom_auto.xlsx
@@ -6,10 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="温馨提示" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="原表" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="操作指示表" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="新BOM表" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="温馨提示1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="温馨提示" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="原表" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="操作指示表" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="新BOM表" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1185,6 +1186,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1201,217 +1220,217 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>请核验操作指示表单Sheet2 有36行</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>请核验操作指示表单Sheet2 有5列</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>1、 对操作表第2行80218559物料编码进行 删除操作，操作内容是：'我是文本信息，add位号R21'========  开始执行删除操作==========  删除操作已完成=========</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>2、 对操作表第3行80218561物料编码进行 删除操作，操作内容是：'我是文本信息，，delete位号R433'========  开始执行删除操作==========  删除操作已完成=========</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>4、 对操作表第5行2物料编码进行 删除操作，操作内容是：'我是文本信息，，delete位号R432'========  开始执行删除操作==========  删除操作已完成=========</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="0" t="inlineStr">
         <is>
           <t>5、 对操作表第6行81002311物料编码进行 删除操作，操作内容是：'我是文本信息，，delete位号R433'========  开始执行删除操作==========  删除操作已完成=========</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>6、 对操作表第7行81002511物料编码进行 删除操作，操作内容是：'我是文本信息，，add位号R434'========  开始执行删除操作==========  删除操作已完成=========</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>7、 对操作表第8行81002631物料编码进行 删除操作，操作内容是：'我是文本信息，，delete位号R432'========  开始执行删除操作==========  删除操作已完成=========</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>8、 对操作表第9行81003071物料编码进行 删除操作，操作内容是：'我是文本信息，，delete位号R433'========  开始执行删除操作==========  删除操作已完成=========</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="0" t="inlineStr">
         <is>
           <t>10、 对操作表第11行81003161物料编码进行 删除操作，操作内容是：'我是文本信息，，delete位号R432'========  开始执行删除操作==========  删除操作已完成=========</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="0" t="inlineStr">
         <is>
           <t>11、 对操作表第12行81003702物料编码进行 删除操作，操作内容是：'我是文本信息，，delete位号R433'========  开始执行删除操作==========  删除操作已完成=========</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="0" t="inlineStr">
         <is>
           <t>12、 对操作表第13行81003828物料编码进行 删除操作，操作内容是：'我是文本信息，，add位号R434'========  开始执行删除操作==========  删除操作已完成=========</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="0" t="inlineStr">
         <is>
           <t>13、 对操作表第14行81003870物料编码进行 删除操作，操作内容是：'我是文本信息，，delete位号R432'========  开始执行删除操作==========  删除操作已完成=========</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="0" t="inlineStr">
         <is>
           <t>14、 对操作表第15行81003882物料编码进行 删除操作，操作内容是：'我是文本信息，，delete位号R433'========  开始执行删除操作==========  删除操作已完成=========</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="0" t="inlineStr">
         <is>
           <t>16、 对操作表第17行81003954物料编码进行 删除操作，操作内容是：'我是文本信息，，delete位号R432'========  开始执行删除操作==========  删除操作已完成=========</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="0" t="inlineStr">
         <is>
           <t>17、 对操作表第18行81004196物料编码进行 删除操作，操作内容是：'我是文本信息，，delete位号R433'========  开始执行删除操作==========  删除操作已完成=========</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="0" t="inlineStr">
         <is>
           <t>18、 对操作表第19行81004221物料编码进行 删除操作，操作内容是：'我是文本信息，，add位号R434'========  开始执行删除操作==========  删除操作已完成=========</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="0" t="inlineStr">
         <is>
           <t>19、 对操作表第20行81004408物料编码进行 删除操作，操作内容是：'我是文本信息，，delete位号R432'========  开始执行删除操作==========  删除操作已完成=========</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="0" t="inlineStr">
         <is>
           <t>20、 对操作表第21行85009982物料编码进行 增加操作，操作内容是：'我是文本信息，，add位号R434'========  开始执行增加操作=========== 增加操作已完成=========</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="0" t="inlineStr">
         <is>
           <t>21、 对操作表第22行85010148物料编码进行 增加操作，操作内容是：'我是文本信息，，add位号R435'========  开始执行增加操作=========== 增加操作已完成=========</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="0" t="inlineStr">
         <is>
           <t>22、 对操作表第23行84705439物料编码进行 增加操作，操作内容是：'我是文本信息，，add位号R436'========  开始执行增加操作=========== 增加操作已完成=========</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="0" t="inlineStr">
         <is>
           <t>23、 对操作表第24行84705483物料编码进行 增加操作，操作内容是：'我是文本信息，，add位号R437'========  开始执行增加操作=========== 增加操作已完成=========</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="0" t="inlineStr">
         <is>
           <t>24、 对操作表第25行85009799物料编码进行 增加操作，操作内容是：'我是文本信息，，add位号R438'========  开始执行增加操作=========== 增加操作已完成=========</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="0" t="inlineStr">
         <is>
           <t>25、 对操作表第26行80218559物料编码进行 增加操作，操作内容是：'我是文本信息，，add位号R439'========  开始执行增加操作=========== 增加操作已完成=========</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="0" t="inlineStr">
         <is>
           <t>27、 对操作表第28行83403364物料编码进行 增加操作，操作内容是：'我是文本信息，，add位号R441'========  开始执行增加操作=========== 增加操作已完成=========</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="0" t="inlineStr">
         <is>
           <t>28、 对操作表第29行84703199物料编码进行 增加操作，操作内容是：'我是文本信息，，add位号R442'========  开始执行增加操作=========== 增加操作已完成=========</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="0" t="inlineStr">
         <is>
           <t>29、 对操作表第30行84704829物料编码进行 增加操作，操作内容是：'我是文本信息，，add位号R443'========  开始执行增加操作=========== 增加操作已完成=========</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="0" t="inlineStr">
         <is>
           <t>31、 对操作表第32行84705339物料编码进行 增加操作，操作内容是：'我是文本信息，，add位号R445'========  开始执行增加操作=========== 增加操作已完成=========</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="0" t="inlineStr">
         <is>
           <t>32、 对操作表第33行84704574A物料编码进行 增加操作，操作内容是：'我是文本信息，，add位号R446'========  开始执行增加操作=========== 增加操作已完成=========</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="0" t="inlineStr">
         <is>
           <t>34、 对操作表第35行81600523物料编码进行 增加操作，操作内容是：'我是文本信息，，add位号R448'========  开始执行增加操作=========== 增加操作已完成=========</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="0" t="inlineStr">
         <is>
           <t>35、 对操作表第36行80218561物料编码进行 增加操作，操作内容是：'我是文本信息，，add位号R449'========  开始执行增加操作=========== 增加操作已完成=========</t>
         </is>
@@ -1422,7 +1441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13148,7 +13167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14009,7 +14028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14212,7 +14231,7 @@
         </is>
       </c>
       <c r="L3" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="0" t="inlineStr">
         <is>
@@ -14224,7 +14243,11 @@
           <t>R432</t>
         </is>
       </c>
-      <c r="P3" s="25" t="inlineStr"/>
+      <c r="P3" s="25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="20" t="n">
@@ -14314,7 +14337,7 @@
         </is>
       </c>
       <c r="L5" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="0" t="inlineStr">
         <is>
@@ -14326,7 +14349,11 @@
           <t>R45,R12</t>
         </is>
       </c>
-      <c r="P5" s="25" t="inlineStr"/>
+      <c r="P5" s="25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="20" t="n">
@@ -14363,7 +14390,7 @@
         </is>
       </c>
       <c r="L6" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="0" t="inlineStr">
         <is>
@@ -14375,7 +14402,11 @@
           <t>R432</t>
         </is>
       </c>
-      <c r="P6" s="25" t="inlineStr"/>
+      <c r="P6" s="25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="20" t="n">
@@ -14407,7 +14438,7 @@
         </is>
       </c>
       <c r="L7" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="0" t="inlineStr">
         <is>
@@ -14419,7 +14450,11 @@
           <t>R222,R67,R1</t>
         </is>
       </c>
-      <c r="P7" s="25" t="inlineStr"/>
+      <c r="P7" s="25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="20" t="n">
@@ -14456,7 +14491,7 @@
         </is>
       </c>
       <c r="L8" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="0" t="inlineStr">
         <is>
@@ -14468,7 +14503,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P8" s="25" t="inlineStr"/>
+      <c r="P8" s="25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="20" t="n">
@@ -14505,7 +14544,7 @@
         </is>
       </c>
       <c r="L9" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="0" t="inlineStr">
         <is>
@@ -14517,7 +14556,11 @@
           <t>R432</t>
         </is>
       </c>
-      <c r="P9" s="25" t="inlineStr"/>
+      <c r="P9" s="25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="20" t="n">
@@ -14607,7 +14650,7 @@
         </is>
       </c>
       <c r="L11" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="0" t="inlineStr">
         <is>
@@ -14619,7 +14662,11 @@
           <t>R21</t>
         </is>
       </c>
-      <c r="P11" s="25" t="inlineStr"/>
+      <c r="P11" s="25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="20" t="n">
@@ -14656,7 +14703,7 @@
         </is>
       </c>
       <c r="L12" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="0" t="inlineStr">
         <is>
@@ -14668,7 +14715,11 @@
           <t>R45,R12</t>
         </is>
       </c>
-      <c r="P12" s="25" t="inlineStr"/>
+      <c r="P12" s="25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="20" t="n">
@@ -14705,7 +14756,7 @@
         </is>
       </c>
       <c r="L13" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="0" t="inlineStr">
         <is>
@@ -14717,7 +14768,11 @@
           <t>R432</t>
         </is>
       </c>
-      <c r="P13" s="25" t="inlineStr"/>
+      <c r="P13" s="25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="20" t="n">
@@ -14754,7 +14809,7 @@
         </is>
       </c>
       <c r="L14" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="0" t="inlineStr">
         <is>
@@ -14766,7 +14821,11 @@
           <t>R222,R67,R1</t>
         </is>
       </c>
-      <c r="P14" s="25" t="inlineStr"/>
+      <c r="P14" s="25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="20" t="n">
@@ -14803,7 +14862,7 @@
         </is>
       </c>
       <c r="L15" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="0" t="inlineStr">
         <is>
@@ -14815,7 +14874,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P15" s="25" t="inlineStr"/>
+      <c r="P15" s="25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="20" t="n">
@@ -14905,7 +14968,7 @@
         </is>
       </c>
       <c r="L17" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="0" t="inlineStr">
         <is>
@@ -14917,7 +14980,11 @@
           <t>R432</t>
         </is>
       </c>
-      <c r="P17" s="25" t="inlineStr"/>
+      <c r="P17" s="25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="20" t="n">
@@ -14954,7 +15021,7 @@
         </is>
       </c>
       <c r="L18" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="0" t="inlineStr">
         <is>
@@ -14966,7 +15033,11 @@
           <t>R21</t>
         </is>
       </c>
-      <c r="P18" s="25" t="inlineStr"/>
+      <c r="P18" s="25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="20" t="n">
@@ -15003,7 +15074,7 @@
         </is>
       </c>
       <c r="L19" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="0" t="inlineStr">
         <is>
@@ -15015,7 +15086,11 @@
           <t>R45,R12</t>
         </is>
       </c>
-      <c r="P19" s="25" t="inlineStr"/>
+      <c r="P19" s="25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="20" t="n">
@@ -15052,7 +15127,7 @@
         </is>
       </c>
       <c r="L20" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="0" t="inlineStr">
         <is>
@@ -15064,7 +15139,11 @@
           <t>R432</t>
         </is>
       </c>
-      <c r="P20" s="25" t="inlineStr"/>
+      <c r="P20" s="25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="20" t="n">
